--- a/biology/Zoologie/Echis_leucogaster/Echis_leucogaster.xlsx
+++ b/biology/Zoologie/Echis_leucogaster/Echis_leucogaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Echis leucogaster, l'Échide à ventre blanc, est une espèce de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echis leucogaster, l'Échide à ventre blanc, est une espèce de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Algérie, au Maroc, au Sahara occidental, en Mauritanie, au Sénégal, au Gambie, au Mali, au Burkina Faso, au Niger, dans le nord du Nigeria et dans l'ouest du Tchad[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Algérie, au Maroc, au Sahara occidental, en Mauritanie, au Sénégal, au Gambie, au Mali, au Burkina Faso, au Niger, dans le nord du Nigeria et dans l'ouest du Tchad. 
 Sa présence est incertaine au Bénin.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux ovipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux ovipare.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son venin principalement hémotoxique conduit souvent à des complications rénales[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son venin principalement hémotoxique conduit souvent à des complications rénales.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du grec ancien λευκός, leukόs, « blanc », γαστήρ, gaster, « ventre », lui a été donné en référence à sa livrée.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Roman, 1972 : Deux sous-espèces de la vipère Echis carinatus (Schneider) dans les territoires de Haute-Volta et du Niger : Echis carinatus ocellatus Stemmler, Echis carinatus leucogaster n. ssp. Notes et documents Voltaïques, vol. 5, no 4, p. 1-11.</t>
         </is>
